--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_3-3.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_3-3.xlsx
@@ -140,7 +140,7 @@
     <x:t>701 Sidestreet Rd.</x:t>
   </x:si>
   <x:si>
-    <x:t>New York,NY 10007</x:t>
+    <x:t>New York, NY 10007</x:t>
   </x:si>
   <x:si>
     <x:t>123-45-6789</x:t>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_3-3.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_3-3.xlsx
@@ -15,122 +15,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
     <x:t>1_Name</x:t>
   </x:si>
   <x:si>
-    <x:t>1_Name - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>2_Business Name</x:t>
   </x:si>
   <x:si>
-    <x:t>2_Business Name - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3a_Individual</x:t>
   </x:si>
   <x:si>
-    <x:t>3a_Individual - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3b_C Corp</x:t>
   </x:si>
   <x:si>
-    <x:t>3b_C Corp - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3c_S Corp</x:t>
   </x:si>
   <x:si>
-    <x:t>3c_S Corp - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3d_Partnership</x:t>
   </x:si>
   <x:si>
-    <x:t>3d_Partnership - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3e_Trust-estate</x:t>
   </x:si>
   <x:si>
-    <x:t>3e_Trust-estate - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3f_LLC</x:t>
   </x:si>
   <x:si>
-    <x:t>3f_LLC - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3f_LLC Tax Classification</x:t>
   </x:si>
   <x:si>
-    <x:t>3f_LLC Tax Classification - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3g_Other</x:t>
   </x:si>
   <x:si>
-    <x:t>3g_Other - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>3g_Other Detail</x:t>
   </x:si>
   <x:si>
-    <x:t>3g_Other Detail - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>5_Address</x:t>
   </x:si>
   <x:si>
-    <x:t>5_Address - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>6_City State ZIP</x:t>
   </x:si>
   <x:si>
-    <x:t>6_City State ZIP - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>7_Acct Number</x:t>
   </x:si>
   <x:si>
-    <x:t>7_Acct Number - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>TIN_SSN</x:t>
   </x:si>
   <x:si>
-    <x:t>TIN_SSN - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>TIN_EIN</x:t>
   </x:si>
   <x:si>
-    <x:t>TIN_EIN - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Certification_Signature</x:t>
   </x:si>
   <x:si>
-    <x:t>Certification_Signature - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Certification_Signature Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Certification_Signature Date - Confidence</x:t>
-  </x:si>
-  <x:si>
     <x:t>Mike Shift</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Yes</x:t>
   </x:si>
   <x:si>
@@ -143,7 +86,7 @@
     <x:t>New York, NY 10007</x:t>
   </x:si>
   <x:si>
-    <x:t>123-45-6789</x:t>
+    <x:t>2 - - 6789</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
@@ -503,13 +446,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AJ2"/>
+  <x:dimension ref="A1:R2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:36">
+    <x:row r="1" spans="1:18">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -564,145 +507,49 @@
       <x:c r="R1" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:18">
+      <x:c r="A2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="V1" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Y1" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="AA1" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="AB1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="AC1" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AD1" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AE1" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="AF1" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AG1" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AH1" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AI1" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="AJ1" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:36">
-      <x:c r="A2" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="X2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AD2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE2" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AF2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AH2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI2" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="AJ2" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -719,13 +566,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AJ2"/>
+  <x:dimension ref="A1:R2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:36">
+    <x:row r="1" spans="1:18">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -780,145 +627,49 @@
       <x:c r="R1" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:18">
+      <x:c r="A2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="V1" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Y1" s="0" t="s">
+      <x:c r="P2" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="AA1" s="0" t="s">
+      <x:c r="Q2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="AB1" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="AC1" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AD1" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="AE1" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="AF1" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="AG1" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="AH1" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="AI1" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="AJ1" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:36">
-      <x:c r="A2" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="W2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="X2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Y2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="Z2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="AD2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AE2" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AF2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AG2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="AH2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI2" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="AJ2" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_3-3.xlsx
+++ b/DocumentUnderstandingProcess/contentFiles/any/any/pt0/VisualBasic/Tests/Cache/ExportMergedDocuments_3-3.xlsx
@@ -86,7 +86,7 @@
     <x:t>New York, NY 10007</x:t>
   </x:si>
   <x:si>
-    <x:t>2 - - 6789</x:t>
+    <x:t>123-45-6789</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
